--- a/Base_Bruto_Diana.xlsx
+++ b/Base_Bruto_Diana.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montserratclinica-my.sharepoint.com/personal/eugenio_ferro_icsn_co/Documents/1Investigacion/1_Protocolos/Adaptacion C-SSRS/Registros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive - UNIVERSIDAD DE CUNDINAMARCA\ANA_OF_DE_SERSALD\Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108A07FD-B899-4699-BAED-F3C881B12576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0368C1-BBDE-4374-89DF-44C8C1CA273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="12525" xr2:uid="{5C06E60E-8F15-4250-80E1-3B0674F560A1}"/>
+    <workbookView xWindow="-72" yWindow="0" windowWidth="11832" windowHeight="12336" xr2:uid="{5C06E60E-8F15-4250-80E1-3B0674F560A1}"/>
   </bookViews>
   <sheets>
     <sheet name="ProyectoCSSRSAdaptac_DATA_LABEL" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProyectoCSSRSAdaptac_DATA_LABEL!$A$1:$DS$605</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -5937,19 +5940,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70544CF4-CF06-4DD5-AF17-1D706CCF2939}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DS605"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6140,7 +6144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6707,7 +6711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -7636,7 +7640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -7755,7 +7759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7951,7 +7955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -8289,7 +8293,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>7</v>
       </c>
@@ -8366,7 +8370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8598,7 +8602,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>9</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10</v>
       </c>
@@ -9079,7 +9083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9171,7 +9175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -9450,7 +9454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -9527,7 +9531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -9678,7 +9682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>13</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>13</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>14</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -10337,7 +10341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -10417,7 +10421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15</v>
       </c>
@@ -10533,7 +10537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15</v>
       </c>
@@ -10646,7 +10650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15</v>
       </c>
@@ -10723,7 +10727,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>16</v>
       </c>
@@ -10839,7 +10843,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>16</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16</v>
       </c>
@@ -11002,7 +11006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>17</v>
       </c>
@@ -11118,7 +11122,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>17</v>
       </c>
@@ -11243,7 +11247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>17</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>18</v>
       </c>
@@ -11436,7 +11440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>18</v>
       </c>
@@ -11552,7 +11556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>18</v>
       </c>
@@ -11632,7 +11636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>19</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>19</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>19</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20</v>
       </c>
@@ -12247,7 +12251,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>21</v>
       </c>
@@ -12363,7 +12367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>21</v>
       </c>
@@ -12452,7 +12456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>21</v>
       </c>
@@ -12529,7 +12533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>22</v>
       </c>
@@ -12645,7 +12649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>22</v>
       </c>
@@ -12722,7 +12726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>22</v>
       </c>
@@ -12757,7 +12761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>23</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>23</v>
       </c>
@@ -12992,7 +12996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>23</v>
       </c>
@@ -13072,7 +13076,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>24</v>
       </c>
@@ -13188,7 +13192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>24</v>
       </c>
@@ -13304,7 +13308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>24</v>
       </c>
@@ -13384,7 +13388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25</v>
       </c>
@@ -13500,7 +13504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>25</v>
       </c>
@@ -13619,7 +13623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>25</v>
       </c>
@@ -13699,7 +13703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>26</v>
       </c>
@@ -13815,7 +13819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>26</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>26</v>
       </c>
@@ -13975,7 +13979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>27</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>27</v>
       </c>
@@ -14171,7 +14175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>27</v>
       </c>
@@ -14248,7 +14252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>28</v>
       </c>
@@ -14364,7 +14368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>28</v>
       </c>
@@ -14462,7 +14466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>28</v>
       </c>
@@ -14539,7 +14543,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>29</v>
       </c>
@@ -14655,7 +14659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>29</v>
       </c>
@@ -14735,7 +14739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>29</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30</v>
       </c>
@@ -14886,7 +14890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>30</v>
       </c>
@@ -14999,7 +15003,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>30</v>
       </c>
@@ -15079,7 +15083,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>31</v>
       </c>
@@ -15192,7 +15196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>31</v>
       </c>
@@ -15296,7 +15300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>31</v>
       </c>
@@ -15376,7 +15380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>32</v>
       </c>
@@ -15492,7 +15496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>32</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>32</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>33</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>33</v>
       </c>
@@ -15926,7 +15930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>33</v>
       </c>
@@ -16003,7 +16007,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>34</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>34</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>34</v>
       </c>
@@ -16315,7 +16319,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>35</v>
       </c>
@@ -16431,7 +16435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>35</v>
       </c>
@@ -16523,7 +16527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>35</v>
       </c>
@@ -16600,7 +16604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>36</v>
       </c>
@@ -16719,7 +16723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>36</v>
       </c>
@@ -16841,7 +16845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>36</v>
       </c>
@@ -16918,7 +16922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>37</v>
       </c>
@@ -17034,7 +17038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>37</v>
       </c>
@@ -17159,7 +17163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>37</v>
       </c>
@@ -17239,7 +17243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>38</v>
       </c>
@@ -17355,7 +17359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>38</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>38</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>39</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>39</v>
       </c>
@@ -17669,7 +17673,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>39</v>
       </c>
@@ -17749,7 +17753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>40</v>
       </c>
@@ -17865,7 +17869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>40</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>40</v>
       </c>
@@ -17962,7 +17966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>41</v>
       </c>
@@ -18078,7 +18082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>41</v>
       </c>
@@ -18203,7 +18207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>41</v>
       </c>
@@ -18283,7 +18287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>42</v>
       </c>
@@ -18399,7 +18403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>42</v>
       </c>
@@ -18419,7 +18423,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="131" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>42</v>
       </c>
@@ -18496,7 +18500,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>43</v>
       </c>
@@ -18612,7 +18616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>43</v>
       </c>
@@ -18704,7 +18708,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="134" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>43</v>
       </c>
@@ -18781,7 +18785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>44</v>
       </c>
@@ -18897,7 +18901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>44</v>
       </c>
@@ -18974,7 +18978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>44</v>
       </c>
@@ -19051,7 +19055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>45</v>
       </c>
@@ -19167,7 +19171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>45</v>
       </c>
@@ -19229,7 +19233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="140" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>45</v>
       </c>
@@ -19264,7 +19268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>46</v>
       </c>
@@ -19380,7 +19384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>46</v>
       </c>
@@ -19496,7 +19500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>46</v>
       </c>
@@ -19573,7 +19577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="144" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>47</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>47</v>
       </c>
@@ -19724,7 +19728,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="146" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>47</v>
       </c>
@@ -19804,7 +19808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>48</v>
       </c>
@@ -19920,7 +19924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>48</v>
       </c>
@@ -20027,7 +20031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>48</v>
       </c>
@@ -20107,7 +20111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>49</v>
       </c>
@@ -20223,7 +20227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>49</v>
       </c>
@@ -20303,7 +20307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>49</v>
       </c>
@@ -20380,7 +20384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>50</v>
       </c>
@@ -20496,7 +20500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>50</v>
       </c>
@@ -20612,7 +20616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>50</v>
       </c>
@@ -20689,7 +20693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>51</v>
       </c>
@@ -20808,7 +20812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>51</v>
       </c>
@@ -20921,7 +20925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>51</v>
       </c>
@@ -21001,7 +21005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>52</v>
       </c>
@@ -21117,7 +21121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>52</v>
       </c>
@@ -21200,7 +21204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>52</v>
       </c>
@@ -21277,7 +21281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>53</v>
       </c>
@@ -21393,7 +21397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>53</v>
       </c>
@@ -21485,7 +21489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="164" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>53</v>
       </c>
@@ -21562,7 +21566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>54</v>
       </c>
@@ -21681,7 +21685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>54</v>
       </c>
@@ -21743,7 +21747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>54</v>
       </c>
@@ -21778,7 +21782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>55</v>
       </c>
@@ -21891,7 +21895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>55</v>
       </c>
@@ -22007,7 +22011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>55</v>
       </c>
@@ -22087,7 +22091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>56</v>
       </c>
@@ -22203,7 +22207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="172" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>56</v>
       </c>
@@ -22292,7 +22296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>56</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>57</v>
       </c>
@@ -22485,7 +22489,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>57</v>
       </c>
@@ -22526,7 +22530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>57</v>
       </c>
@@ -22561,7 +22565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>58</v>
       </c>
@@ -22677,7 +22681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="178" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>58</v>
       </c>
@@ -22697,7 +22701,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="179" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>58</v>
       </c>
@@ -22774,7 +22778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>59</v>
       </c>
@@ -22890,7 +22894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="181" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>59</v>
       </c>
@@ -22955,7 +22959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="182" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>59</v>
       </c>
@@ -23032,7 +23036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>60</v>
       </c>
@@ -23151,7 +23155,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>60</v>
       </c>
@@ -23228,7 +23232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>60</v>
       </c>
@@ -23305,7 +23309,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>61</v>
       </c>
@@ -23424,7 +23428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>61</v>
       </c>
@@ -23540,7 +23544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>61</v>
       </c>
@@ -23620,7 +23624,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>62</v>
       </c>
@@ -23733,7 +23737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>62</v>
       </c>
@@ -23819,7 +23823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>62</v>
       </c>
@@ -23896,7 +23900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>63</v>
       </c>
@@ -24012,7 +24016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>63</v>
       </c>
@@ -24092,7 +24096,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>63</v>
       </c>
@@ -24169,7 +24173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>64</v>
       </c>
@@ -24285,7 +24289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>64</v>
       </c>
@@ -24326,7 +24330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>64</v>
       </c>
@@ -24361,7 +24365,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>65</v>
       </c>
@@ -24477,7 +24481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>65</v>
       </c>
@@ -24593,7 +24597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="200" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>65</v>
       </c>
@@ -24673,7 +24677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>66</v>
       </c>
@@ -24789,7 +24793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="202" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>66</v>
       </c>
@@ -24887,7 +24891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="203" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>66</v>
       </c>
@@ -24964,7 +24968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>67</v>
       </c>
@@ -25080,7 +25084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>67</v>
       </c>
@@ -25106,7 +25110,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="206" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>67</v>
       </c>
@@ -25183,7 +25187,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="207" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>68</v>
       </c>
@@ -25302,7 +25306,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>68</v>
       </c>
@@ -25421,7 +25425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="209" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>68</v>
       </c>
@@ -25501,7 +25505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="210" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>69</v>
       </c>
@@ -25617,7 +25621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>69</v>
       </c>
@@ -25736,7 +25740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="212" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>69</v>
       </c>
@@ -25813,7 +25817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="213" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>70</v>
       </c>
@@ -25926,7 +25930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>70</v>
       </c>
@@ -25988,7 +25992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="215" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>70</v>
       </c>
@@ -26023,7 +26027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>71</v>
       </c>
@@ -26136,7 +26140,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>71</v>
       </c>
@@ -26201,7 +26205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>71</v>
       </c>
@@ -26236,7 +26240,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>72</v>
       </c>
@@ -26355,7 +26359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>72</v>
       </c>
@@ -26474,7 +26478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="221" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>72</v>
       </c>
@@ -26554,7 +26558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="222" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>73</v>
       </c>
@@ -26673,7 +26677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="223" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>73</v>
       </c>
@@ -26753,7 +26757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>73</v>
       </c>
@@ -26830,7 +26834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="225" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>74</v>
       </c>
@@ -26946,7 +26950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="226" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>74</v>
       </c>
@@ -27062,7 +27066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>74</v>
       </c>
@@ -27139,7 +27143,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="228" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>75</v>
       </c>
@@ -27252,7 +27256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>75</v>
       </c>
@@ -27383,7 +27387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="230" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>75</v>
       </c>
@@ -27460,7 +27464,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="231" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>76</v>
       </c>
@@ -27573,7 +27577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>76</v>
       </c>
@@ -27701,7 +27705,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="233" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>76</v>
       </c>
@@ -27781,7 +27785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="234" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>77</v>
       </c>
@@ -27897,7 +27901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>77</v>
       </c>
@@ -28013,7 +28017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>77</v>
       </c>
@@ -28090,7 +28094,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="237" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>78</v>
       </c>
@@ -28206,7 +28210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="238" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>78</v>
       </c>
@@ -28286,7 +28290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="239" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>78</v>
       </c>
@@ -28363,7 +28367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="240" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>79</v>
       </c>
@@ -28479,7 +28483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="241" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>79</v>
       </c>
@@ -28562,7 +28566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="242" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>79</v>
       </c>
@@ -28639,7 +28643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="243" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>80</v>
       </c>
@@ -28755,7 +28759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="244" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>80</v>
       </c>
@@ -28844,7 +28848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="245" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>80</v>
       </c>
@@ -28921,7 +28925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="246" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>81</v>
       </c>
@@ -29034,7 +29038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="247" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>81</v>
       </c>
@@ -29120,7 +29124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="248" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>81</v>
       </c>
@@ -29197,7 +29201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="249" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>82</v>
       </c>
@@ -29310,7 +29314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="250" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>82</v>
       </c>
@@ -29348,7 +29352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="251" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>82</v>
       </c>
@@ -29383,7 +29387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>83</v>
       </c>
@@ -29499,7 +29503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="253" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>83</v>
       </c>
@@ -29588,7 +29592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>83</v>
       </c>
@@ -29665,7 +29669,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="255" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>84</v>
       </c>
@@ -29778,7 +29782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="256" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>84</v>
       </c>
@@ -29855,7 +29859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="257" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>84</v>
       </c>
@@ -29932,7 +29936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="258" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>85</v>
       </c>
@@ -30048,7 +30052,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="259" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>85</v>
       </c>
@@ -30173,7 +30177,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="260" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>85</v>
       </c>
@@ -30253,7 +30257,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="261" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>86</v>
       </c>
@@ -30366,7 +30370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="262" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>86</v>
       </c>
@@ -30443,7 +30447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="263" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>86</v>
       </c>
@@ -30478,7 +30482,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>87</v>
       </c>
@@ -30594,7 +30598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>87</v>
       </c>
@@ -30665,7 +30669,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="266" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>87</v>
       </c>
@@ -30742,7 +30746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="267" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>88</v>
       </c>
@@ -30858,7 +30862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="268" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>88</v>
       </c>
@@ -30986,7 +30990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="269" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>88</v>
       </c>
@@ -31066,7 +31070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="270" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>89</v>
       </c>
@@ -31182,7 +31186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="271" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>89</v>
       </c>
@@ -31262,7 +31266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="272" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>89</v>
       </c>
@@ -31297,7 +31301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="273" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>90</v>
       </c>
@@ -31413,7 +31417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="274" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>90</v>
       </c>
@@ -31502,7 +31506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="275" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>90</v>
       </c>
@@ -31579,7 +31583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="276" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>91</v>
       </c>
@@ -31695,7 +31699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="277" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>91</v>
       </c>
@@ -31769,7 +31773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="278" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>91</v>
       </c>
@@ -31804,7 +31808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="279" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>92</v>
       </c>
@@ -31920,7 +31924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="280" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>92</v>
       </c>
@@ -32045,7 +32049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="281" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>92</v>
       </c>
@@ -32125,7 +32129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="282" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>93</v>
       </c>
@@ -32241,7 +32245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="283" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>93</v>
       </c>
@@ -32324,7 +32328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="284" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>93</v>
       </c>
@@ -32401,7 +32405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="285" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>94</v>
       </c>
@@ -32514,7 +32518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="286" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>94</v>
       </c>
@@ -32552,7 +32556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="287" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>94</v>
       </c>
@@ -32587,7 +32591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="288" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>95</v>
       </c>
@@ -32703,7 +32707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="289" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>95</v>
       </c>
@@ -32825,7 +32829,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="290" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>95</v>
       </c>
@@ -32905,7 +32909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="291" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>96</v>
       </c>
@@ -33018,7 +33022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="292" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>96</v>
       </c>
@@ -33107,7 +33111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="293" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>96</v>
       </c>
@@ -33184,7 +33188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="294" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>97</v>
       </c>
@@ -33300,7 +33304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="295" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>97</v>
       </c>
@@ -33413,7 +33417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="296" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>97</v>
       </c>
@@ -33493,7 +33497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="297" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>98</v>
       </c>
@@ -33609,7 +33613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="298" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>98</v>
       </c>
@@ -33698,7 +33702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>98</v>
       </c>
@@ -33775,7 +33779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="300" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>99</v>
       </c>
@@ -33891,7 +33895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="301" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>99</v>
       </c>
@@ -34013,7 +34017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="302" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>99</v>
       </c>
@@ -34090,7 +34094,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="303" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>100</v>
       </c>
@@ -34206,7 +34210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="304" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>100</v>
       </c>
@@ -34289,7 +34293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="305" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>100</v>
       </c>
@@ -34366,7 +34370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="306" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>101</v>
       </c>
@@ -34479,7 +34483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="307" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>101</v>
       </c>
@@ -34568,7 +34572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="308" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>101</v>
       </c>
@@ -34645,7 +34649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="309" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>102</v>
       </c>
@@ -34764,7 +34768,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="310" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>102</v>
       </c>
@@ -34886,7 +34890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="311" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>102</v>
       </c>
@@ -34966,7 +34970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="312" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>103</v>
       </c>
@@ -35082,7 +35086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="313" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>103</v>
       </c>
@@ -35201,7 +35205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="314" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>103</v>
       </c>
@@ -35281,7 +35285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="315" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>104</v>
       </c>
@@ -35397,7 +35401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="316" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>104</v>
       </c>
@@ -35513,7 +35517,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="317" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>104</v>
       </c>
@@ -35590,7 +35594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="318" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>105</v>
       </c>
@@ -35706,7 +35710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="319" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>105</v>
       </c>
@@ -35819,7 +35823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="320" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>105</v>
       </c>
@@ -35899,7 +35903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="321" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>106</v>
       </c>
@@ -36015,7 +36019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="322" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>106</v>
       </c>
@@ -36137,7 +36141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="323" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>106</v>
       </c>
@@ -36214,7 +36218,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="324" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>107</v>
       </c>
@@ -36330,7 +36334,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="325" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>107</v>
       </c>
@@ -36440,7 +36444,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="326" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>107</v>
       </c>
@@ -36520,7 +36524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="327" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>108</v>
       </c>
@@ -36636,7 +36640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>108</v>
       </c>
@@ -36746,7 +36750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>108</v>
       </c>
@@ -36823,7 +36827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="330" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>109</v>
       </c>
@@ -36936,7 +36940,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="331" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>109</v>
       </c>
@@ -37052,7 +37056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="332" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>109</v>
       </c>
@@ -37132,7 +37136,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>110</v>
       </c>
@@ -37248,7 +37252,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>110</v>
       </c>
@@ -37319,7 +37323,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="335" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>110</v>
       </c>
@@ -37399,7 +37403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="336" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>111</v>
       </c>
@@ -37515,7 +37519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="337" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>111</v>
       </c>
@@ -37592,7 +37596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="338" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>111</v>
       </c>
@@ -37627,7 +37631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="339" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>112</v>
       </c>
@@ -37743,7 +37747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="340" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>112</v>
       </c>
@@ -37844,7 +37848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="341" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>112</v>
       </c>
@@ -37921,7 +37925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="342" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>113</v>
       </c>
@@ -38037,7 +38041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="343" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>113</v>
       </c>
@@ -38147,7 +38151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="344" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>113</v>
       </c>
@@ -38227,7 +38231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="345" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>114</v>
       </c>
@@ -38343,7 +38347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="346" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>114</v>
       </c>
@@ -38450,7 +38454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="347" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>114</v>
       </c>
@@ -38530,7 +38534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="348" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>115</v>
       </c>
@@ -38646,7 +38650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="349" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>115</v>
       </c>
@@ -38735,7 +38739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="350" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>115</v>
       </c>
@@ -38812,7 +38816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="351" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>116</v>
       </c>
@@ -38931,7 +38935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="352" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>116</v>
       </c>
@@ -39020,7 +39024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="353" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>116</v>
       </c>
@@ -39100,7 +39104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="354" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>117</v>
       </c>
@@ -39216,7 +39220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="355" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>117</v>
       </c>
@@ -39335,7 +39339,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="356" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>117</v>
       </c>
@@ -39415,7 +39419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="357" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>118</v>
       </c>
@@ -39531,7 +39535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="358" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>118</v>
       </c>
@@ -39647,7 +39651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="359" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>118</v>
       </c>
@@ -39727,7 +39731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="360" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>119</v>
       </c>
@@ -39843,7 +39847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="361" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>119</v>
       </c>
@@ -39920,7 +39924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="362" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>119</v>
       </c>
@@ -39994,7 +39998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="363" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>120</v>
       </c>
@@ -40110,7 +40114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="364" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>120</v>
       </c>
@@ -40148,7 +40152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="365" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>120</v>
       </c>
@@ -40183,7 +40187,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="366" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>121</v>
       </c>
@@ -40299,7 +40303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="367" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>121</v>
       </c>
@@ -40391,7 +40395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="368" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>121</v>
       </c>
@@ -40468,7 +40472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="369" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>122</v>
       </c>
@@ -40584,7 +40588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="370" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>122</v>
       </c>
@@ -40709,7 +40713,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="371" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>122</v>
       </c>
@@ -40789,7 +40793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="372" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>123</v>
       </c>
@@ -40908,7 +40912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="373" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>123</v>
       </c>
@@ -41021,7 +41025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="374" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>123</v>
       </c>
@@ -41101,7 +41105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="375" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>124</v>
       </c>
@@ -41217,7 +41221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>124</v>
       </c>
@@ -41306,7 +41310,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="377" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>124</v>
       </c>
@@ -41380,7 +41384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="378" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>125</v>
       </c>
@@ -41493,7 +41497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="379" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>125</v>
       </c>
@@ -41531,7 +41535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="380" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>125</v>
       </c>
@@ -41566,7 +41570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="381" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>126</v>
       </c>
@@ -41682,7 +41686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="382" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>126</v>
       </c>
@@ -41807,7 +41811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="383" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>126</v>
       </c>
@@ -41884,7 +41888,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="384" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>127</v>
       </c>
@@ -41997,7 +42001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="385" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>127</v>
       </c>
@@ -42035,7 +42039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>127</v>
       </c>
@@ -42070,7 +42074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="387" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>128</v>
       </c>
@@ -42186,7 +42190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="388" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>128</v>
       </c>
@@ -42227,7 +42231,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="389" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>128</v>
       </c>
@@ -42262,7 +42266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="390" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>129</v>
       </c>
@@ -42378,7 +42382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="391" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>129</v>
       </c>
@@ -42458,7 +42462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="392" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>129</v>
       </c>
@@ -42535,7 +42539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="393" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>130</v>
       </c>
@@ -42654,7 +42658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="394" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>130</v>
       </c>
@@ -42719,7 +42723,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="395" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>130</v>
       </c>
@@ -42796,7 +42800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="396" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>131</v>
       </c>
@@ -42912,7 +42916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="397" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>131</v>
       </c>
@@ -43019,7 +43023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="398" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>131</v>
       </c>
@@ -43099,7 +43103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="399" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>132</v>
       </c>
@@ -43212,7 +43216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="400" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>132</v>
       </c>
@@ -43292,7 +43296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="401" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>132</v>
       </c>
@@ -43369,7 +43373,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="402" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>133</v>
       </c>
@@ -43482,7 +43486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="403" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>133</v>
       </c>
@@ -43568,7 +43572,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="404" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>133</v>
       </c>
@@ -43603,7 +43607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="405" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>134</v>
       </c>
@@ -43716,7 +43720,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="406" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>134</v>
       </c>
@@ -43802,7 +43806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="407" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>134</v>
       </c>
@@ -43879,7 +43883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="408" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>135</v>
       </c>
@@ -43995,7 +43999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="409" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>135</v>
       </c>
@@ -44078,7 +44082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="410" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>135</v>
       </c>
@@ -44155,7 +44159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="411" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>136</v>
       </c>
@@ -44268,7 +44272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="412" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>136</v>
       </c>
@@ -44342,7 +44346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="413" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>136</v>
       </c>
@@ -44377,7 +44381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="414" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>137</v>
       </c>
@@ -44493,7 +44497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="415" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>137</v>
       </c>
@@ -44609,7 +44613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="416" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>137</v>
       </c>
@@ -44689,7 +44693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="417" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>138</v>
       </c>
@@ -44805,7 +44809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="418" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>138</v>
       </c>
@@ -44933,7 +44937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="419" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>138</v>
       </c>
@@ -45013,7 +45017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="420" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>139</v>
       </c>
@@ -45129,7 +45133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="421" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>139</v>
       </c>
@@ -45194,7 +45198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="422" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>139</v>
       </c>
@@ -45229,7 +45233,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="423" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>140</v>
       </c>
@@ -45342,7 +45346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="424" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>140</v>
       </c>
@@ -45404,7 +45408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="425" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>140</v>
       </c>
@@ -45439,7 +45443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="426" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>141</v>
       </c>
@@ -45555,7 +45559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="427" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>141</v>
       </c>
@@ -45668,7 +45672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="428" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>141</v>
       </c>
@@ -45748,7 +45752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="429" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>142</v>
       </c>
@@ -45864,7 +45868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="430" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>142</v>
       </c>
@@ -45995,7 +45999,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="431" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>142</v>
       </c>
@@ -46075,7 +46079,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="432" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>143</v>
       </c>
@@ -46191,7 +46195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="433" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>143</v>
       </c>
@@ -46316,7 +46320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="434" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>143</v>
       </c>
@@ -46396,7 +46400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="435" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>144</v>
       </c>
@@ -46512,7 +46516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="436" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>144</v>
       </c>
@@ -46577,7 +46581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="437" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>144</v>
       </c>
@@ -46612,7 +46616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="438" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>145</v>
       </c>
@@ -46725,7 +46729,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="439" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>145</v>
       </c>
@@ -46850,7 +46854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="440" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>145</v>
       </c>
@@ -46930,7 +46934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="441" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>146</v>
       </c>
@@ -47046,7 +47050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="442" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>146</v>
       </c>
@@ -47156,7 +47160,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="443" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>146</v>
       </c>
@@ -47233,7 +47237,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="444" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>147</v>
       </c>
@@ -47346,7 +47350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="445" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>147</v>
       </c>
@@ -47408,7 +47412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="446" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>147</v>
       </c>
@@ -47443,7 +47447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="447" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>148</v>
       </c>
@@ -47559,7 +47563,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="448" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>148</v>
       </c>
@@ -47681,7 +47685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="449" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>148</v>
       </c>
@@ -47761,7 +47765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="450" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>149</v>
       </c>
@@ -47877,7 +47881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="451" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>149</v>
       </c>
@@ -48005,7 +48009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="452" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>149</v>
       </c>
@@ -48085,7 +48089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="453" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>150</v>
       </c>
@@ -48201,7 +48205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="454" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>150</v>
       </c>
@@ -48287,7 +48291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="455" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>150</v>
       </c>
@@ -48364,7 +48368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="456" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>151</v>
       </c>
@@ -48480,7 +48484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="457" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>151</v>
       </c>
@@ -48599,7 +48603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="458" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>151</v>
       </c>
@@ -48679,7 +48683,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="459" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>152</v>
       </c>
@@ -48798,7 +48802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="460" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>152</v>
       </c>
@@ -48905,7 +48909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="461" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>152</v>
       </c>
@@ -48985,7 +48989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="462" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>153</v>
       </c>
@@ -49101,7 +49105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="463" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>153</v>
       </c>
@@ -49166,7 +49170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="464" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>153</v>
       </c>
@@ -49201,7 +49205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="465" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>154</v>
       </c>
@@ -49314,7 +49318,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="466" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>154</v>
       </c>
@@ -49394,7 +49398,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="467" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>154</v>
       </c>
@@ -49471,7 +49475,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="468" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>155</v>
       </c>
@@ -49590,7 +49594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="469" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>155</v>
       </c>
@@ -49718,7 +49722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="470" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>155</v>
       </c>
@@ -49798,7 +49802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="471" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>156</v>
       </c>
@@ -49914,7 +49918,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="472" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>156</v>
       </c>
@@ -50039,7 +50043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="473" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>156</v>
       </c>
@@ -50116,7 +50120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="474" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>157</v>
       </c>
@@ -50232,7 +50236,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="475" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>157</v>
       </c>
@@ -50354,7 +50358,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="476" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>157</v>
       </c>
@@ -50434,7 +50438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="477" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>158</v>
       </c>
@@ -50547,7 +50551,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="478" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>158</v>
       </c>
@@ -50588,7 +50592,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="479" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>158</v>
       </c>
@@ -50623,7 +50627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="480" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>159</v>
       </c>
@@ -50739,7 +50743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="481" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>159</v>
       </c>
@@ -50858,7 +50862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="482" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>159</v>
       </c>
@@ -50938,7 +50942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="483" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>160</v>
       </c>
@@ -51054,7 +51058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="484" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>160</v>
       </c>
@@ -51179,7 +51183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="485" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>160</v>
       </c>
@@ -51259,7 +51263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="486" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>161</v>
       </c>
@@ -51375,7 +51379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="487" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>161</v>
       </c>
@@ -51491,7 +51495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="488" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>161</v>
       </c>
@@ -51571,7 +51575,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="489" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>162</v>
       </c>
@@ -51687,7 +51691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="490" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>162</v>
       </c>
@@ -51773,7 +51777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="491" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>162</v>
       </c>
@@ -51850,7 +51854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="492" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>163</v>
       </c>
@@ -51966,7 +51970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="493" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>163</v>
       </c>
@@ -52031,7 +52035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="494" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>163</v>
       </c>
@@ -52066,7 +52070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="495" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>164</v>
       </c>
@@ -52182,7 +52186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="496" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>164</v>
       </c>
@@ -52265,7 +52269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="497" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>164</v>
       </c>
@@ -52342,7 +52346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="498" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>165</v>
       </c>
@@ -52458,7 +52462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="499" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>165</v>
       </c>
@@ -52496,7 +52500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="500" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>165</v>
       </c>
@@ -52531,7 +52535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="501" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>166</v>
       </c>
@@ -52647,7 +52651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="502" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>166</v>
       </c>
@@ -52736,7 +52740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="503" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>166</v>
       </c>
@@ -52813,7 +52817,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="504" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>167</v>
       </c>
@@ -52929,7 +52933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="505" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>167</v>
       </c>
@@ -53057,7 +53061,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="506" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>167</v>
       </c>
@@ -53134,7 +53138,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="507" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>168</v>
       </c>
@@ -53250,7 +53254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="508" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>168</v>
       </c>
@@ -53315,7 +53319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="509" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>168</v>
       </c>
@@ -53392,7 +53396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="510" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>169</v>
       </c>
@@ -53511,7 +53515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="511" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>169</v>
       </c>
@@ -53576,7 +53580,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="512" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>169</v>
       </c>
@@ -53653,7 +53657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="513" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>170</v>
       </c>
@@ -53769,7 +53773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="514" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>170</v>
       </c>
@@ -53894,7 +53898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="515" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>170</v>
       </c>
@@ -53974,7 +53978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="516" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>171</v>
       </c>
@@ -54090,7 +54094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="517" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>171</v>
       </c>
@@ -54179,7 +54183,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="518" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>171</v>
       </c>
@@ -54256,7 +54260,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="519" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>172</v>
       </c>
@@ -54366,7 +54370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="520" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>172</v>
       </c>
@@ -54455,7 +54459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="521" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>172</v>
       </c>
@@ -54532,7 +54536,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="522" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>173</v>
       </c>
@@ -54645,7 +54649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="523" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>173</v>
       </c>
@@ -54773,7 +54777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="524" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>173</v>
       </c>
@@ -54853,7 +54857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="525" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>174</v>
       </c>
@@ -54969,7 +54973,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="526" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>174</v>
       </c>
@@ -55034,7 +55038,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="527" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>174</v>
       </c>
@@ -55111,7 +55115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="528" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>175</v>
       </c>
@@ -55224,7 +55228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="529" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>175</v>
       </c>
@@ -55352,7 +55356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="530" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>175</v>
       </c>
@@ -55432,7 +55436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="531" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>176</v>
       </c>
@@ -55551,7 +55555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="532" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>176</v>
       </c>
@@ -55685,7 +55689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="533" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>176</v>
       </c>
@@ -55765,7 +55769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="534" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>177</v>
       </c>
@@ -55881,7 +55885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="535" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>177</v>
       </c>
@@ -55997,7 +56001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="536" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>177</v>
       </c>
@@ -56074,7 +56078,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="537" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>178</v>
       </c>
@@ -56187,7 +56191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="538" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>178</v>
       </c>
@@ -56303,7 +56307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="539" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>178</v>
       </c>
@@ -56383,7 +56387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="540" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>179</v>
       </c>
@@ -56499,7 +56503,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="541" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>179</v>
       </c>
@@ -56582,7 +56586,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="542" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>179</v>
       </c>
@@ -56659,7 +56663,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="543" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>180</v>
       </c>
@@ -56775,7 +56779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="544" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>180</v>
       </c>
@@ -56882,7 +56886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="545" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>180</v>
       </c>
@@ -56962,7 +56966,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="546" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>181</v>
       </c>
@@ -57081,7 +57085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="547" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>181</v>
       </c>
@@ -57158,7 +57162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="548" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>181</v>
       </c>
@@ -57235,7 +57239,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="549" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>182</v>
       </c>
@@ -57351,7 +57355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="550" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>182</v>
       </c>
@@ -57413,7 +57417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="551" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>182</v>
       </c>
@@ -57490,7 +57494,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="552" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>183</v>
       </c>
@@ -57609,7 +57613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="553" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>183</v>
       </c>
@@ -57671,7 +57675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="554" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>183</v>
       </c>
@@ -57748,7 +57752,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="555" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>184</v>
       </c>
@@ -57867,7 +57871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="556" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>184</v>
       </c>
@@ -57980,7 +57984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="557" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>184</v>
       </c>
@@ -58060,7 +58064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="558" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>185</v>
       </c>
@@ -58176,7 +58180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="559" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>185</v>
       </c>
@@ -58259,7 +58263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="560" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>185</v>
       </c>
@@ -58336,7 +58340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="561" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>186</v>
       </c>
@@ -58452,7 +58456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="562" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>186</v>
       </c>
@@ -58574,7 +58578,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="563" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>186</v>
       </c>
@@ -58654,7 +58658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="564" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>187</v>
       </c>
@@ -58770,7 +58774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="565" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>187</v>
       </c>
@@ -58865,7 +58869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="566" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>187</v>
       </c>
@@ -58942,7 +58946,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="567" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>188</v>
       </c>
@@ -59058,7 +59062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="568" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>188</v>
       </c>
@@ -59171,7 +59175,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="569" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>188</v>
       </c>
@@ -59251,7 +59255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="570" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>189</v>
       </c>
@@ -59370,7 +59374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="571" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>189</v>
       </c>
@@ -59432,7 +59436,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="572" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>189</v>
       </c>
@@ -59509,7 +59513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="573" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>190</v>
       </c>
@@ -59625,7 +59629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="574" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>190</v>
       </c>
@@ -59744,7 +59748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="575" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>190</v>
       </c>
@@ -59824,7 +59828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="576" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>191</v>
       </c>
@@ -59943,7 +59947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="577" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>191</v>
       </c>
@@ -60035,7 +60039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="578" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>191</v>
       </c>
@@ -60112,7 +60116,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="579" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>192</v>
       </c>
@@ -60225,7 +60229,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="580" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>192</v>
       </c>
@@ -60341,7 +60345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="581" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>192</v>
       </c>
@@ -60421,7 +60425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="582" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>193</v>
       </c>
@@ -60537,7 +60541,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="583" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>193</v>
       </c>
@@ -60617,7 +60621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="584" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>193</v>
       </c>
@@ -60694,7 +60698,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="585" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>194</v>
       </c>
@@ -60810,7 +60814,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="586" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>194</v>
       </c>
@@ -60887,7 +60891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="587" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>194</v>
       </c>
@@ -60922,7 +60926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="588" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>195</v>
       </c>
@@ -61038,7 +61042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="589" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>195</v>
       </c>
@@ -61124,7 +61128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="590" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>195</v>
       </c>
@@ -61201,7 +61205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="591" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>196</v>
       </c>
@@ -61317,7 +61321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="592" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>196</v>
       </c>
@@ -61391,7 +61395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="593" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>196</v>
       </c>
@@ -61426,7 +61430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="594" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>197</v>
       </c>
@@ -61542,7 +61546,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="595" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>197</v>
       </c>
@@ -61604,7 +61608,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="596" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>197</v>
       </c>
@@ -61681,7 +61685,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="597" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>198</v>
       </c>
@@ -61794,7 +61798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="598" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>198</v>
       </c>
@@ -61889,7 +61893,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="599" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>198</v>
       </c>
@@ -61966,7 +61970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="600" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>199</v>
       </c>
@@ -62082,7 +62086,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="601" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>199</v>
       </c>
@@ -62162,7 +62166,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="602" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>199</v>
       </c>
@@ -62239,7 +62243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="603" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>200</v>
       </c>
@@ -62355,7 +62359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="604" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:123" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>200</v>
       </c>
@@ -62417,7 +62421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="605" spans="1:123" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:123" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>200</v>
       </c>
@@ -62495,6 +62499,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:DS605" xr:uid="{70544CF4-CF06-4DD5-AF17-1D706CCF2939}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Escala Sp-CSSRS TodaLaVida"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>